--- a/data/trans_dic/P1802_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Edad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.1025371968355109</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0776801175958876</v>
+        <v>0.07768011759588758</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1460029467132725</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07703917382237856</v>
+        <v>0.07599193763524188</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04558426712014585</v>
+        <v>0.04201557609807684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1143123502345378</v>
+        <v>0.11258709081524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08400280276807932</v>
+        <v>0.08326540595979794</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.103003456664941</v>
+        <v>0.1027234536599204</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07039922717961218</v>
+        <v>0.07437950175712026</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1352948550037361</v>
+        <v>0.1319754815137597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1316496750091994</v>
+        <v>0.1318480632452823</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1826346896692133</v>
+        <v>0.1832622784856003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1815770069034089</v>
+        <v>0.1801211198365661</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1466348531970808</v>
+        <v>0.1481050579243096</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1331756133102701</v>
+        <v>0.1408309822477208</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.1140524139229084</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09434736254643696</v>
+        <v>0.09434736254643697</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1520799079216661</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08901569452020794</v>
+        <v>0.0898298953955507</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06420871970635686</v>
+        <v>0.06165920896423132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1227496772594411</v>
+        <v>0.121384355899684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08561594241916322</v>
+        <v>0.08538021240281281</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1127946720689137</v>
+        <v>0.112466808332122</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08380878190058383</v>
+        <v>0.0824955831870212</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1427180592287114</v>
+        <v>0.1454488283400498</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1326737865572092</v>
+        <v>0.1301316903438036</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1811604887175629</v>
+        <v>0.1835959603285215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1426994387987497</v>
+        <v>0.1424482546070492</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1540183066622308</v>
+        <v>0.1532839312982839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1270351287064602</v>
+        <v>0.1305075354048591</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.1455062117851037</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1547068538879978</v>
+        <v>0.1547068538879979</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1106643090899307</v>
+        <v>0.1099818280714086</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1326249326942008</v>
+        <v>0.1286934239549575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1280080864742441</v>
+        <v>0.1288501627895459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1254219765964936</v>
+        <v>0.12521729893523</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1274035907662877</v>
+        <v>0.1273015596867159</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1357775753869608</v>
+        <v>0.1378262656873256</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1637053597447997</v>
+        <v>0.1652813624639987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1930297483013662</v>
+        <v>0.189770214193216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1860553566152845</v>
+        <v>0.1835143108012139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1724911859592467</v>
+        <v>0.174097382239363</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1672382466268399</v>
+        <v>0.1656886002278159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1749470561056791</v>
+        <v>0.1737066523620671</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.167226114810235</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1612758032930987</v>
+        <v>0.1612758032930986</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1624560925624875</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1388920837649975</v>
+        <v>0.1375906121958429</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1353256325490972</v>
+        <v>0.1337504586039925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.134934475290385</v>
+        <v>0.135252179206494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1940306428247484</v>
+        <v>0.1935360482553891</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1449320670987013</v>
+        <v>0.1433448860610525</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.17122008193965</v>
+        <v>0.1740386270472436</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1985024090869627</v>
+        <v>0.1965053065996031</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1910153577774892</v>
+        <v>0.191445893857278</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1945651918079612</v>
+        <v>0.1940002278023242</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2415853548651737</v>
+        <v>0.2399505218848452</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1870798549312419</v>
+        <v>0.1868461213065695</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.208007335457987</v>
+        <v>0.2105615584070412</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1265948722143864</v>
+        <v>0.1205279895674494</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.17434943358844</v>
+        <v>0.1729531966205884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2218705223855515</v>
+        <v>0.2181136575384171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.228912717261862</v>
+        <v>0.2325265753182158</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1803267847072819</v>
+        <v>0.1807439472698118</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2086465270096732</v>
+        <v>0.2086088637414402</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1949867013317061</v>
+        <v>0.1914902435694484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2335619256635834</v>
+        <v>0.2322120005609474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3044521075954845</v>
+        <v>0.2988845194959243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2835493568654458</v>
+        <v>0.284538885045361</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2380987170877195</v>
+        <v>0.2377937148261786</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.25025110337858</v>
+        <v>0.2500766393422827</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.1667625519060117</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1830545457016669</v>
+        <v>0.183054545701667</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.247438842114149</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1289253481577661</v>
+        <v>0.1278290977479866</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1543403468315447</v>
+        <v>0.1516350743131589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2040619256342293</v>
+        <v>0.2027286767900852</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1873195216549957</v>
+        <v>0.1874902742833489</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1800175307141387</v>
+        <v>0.1794174926324143</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1796096317674451</v>
+        <v>0.1782687403915556</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2068611024926157</v>
+        <v>0.2106130325350022</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2197221319179253</v>
+        <v>0.217402369890234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2916947703322243</v>
+        <v>0.2971926918012173</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2428576343897707</v>
+        <v>0.243757206986047</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2419620922264062</v>
+        <v>0.2418221819273121</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2217306729291462</v>
+        <v>0.2214828353251223</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1429733451567293</v>
+        <v>0.1450425722409237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1224369956490985</v>
+        <v>0.126591678941893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.194718976197534</v>
+        <v>0.194725995137422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1797280129969887</v>
+        <v>0.1766292524245458</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1854009891044213</v>
+        <v>0.1858641478773549</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1654461156821334</v>
+        <v>0.164301152935152</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2337325259848325</v>
+        <v>0.2303072262827908</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1899691735457966</v>
+        <v>0.1901739547400435</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2883139225260342</v>
+        <v>0.2890338501472364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2375923168742121</v>
+        <v>0.2328052066611906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.249801748543064</v>
+        <v>0.2529374340469847</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2085162221802913</v>
+        <v>0.2072968831802786</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32315</v>
+        <v>31876</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18589</v>
+        <v>17134</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45240</v>
+        <v>44557</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30452</v>
+        <v>30185</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>83970</v>
+        <v>83742</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>54229</v>
+        <v>57295</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56751</v>
+        <v>55359</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53686</v>
+        <v>53767</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72279</v>
+        <v>72527</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>65824</v>
+        <v>65296</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>119539</v>
+        <v>120738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>102586</v>
+        <v>108483</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52563</v>
+        <v>53044</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30620</v>
+        <v>29405</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69175</v>
+        <v>68405</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42901</v>
+        <v>42783</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130170</v>
+        <v>129791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>81963</v>
+        <v>80678</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84274</v>
+        <v>85887</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63271</v>
+        <v>62059</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>102092</v>
+        <v>103464</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71504</v>
+        <v>71378</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>177743</v>
+        <v>176896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>124237</v>
+        <v>127633</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74045</v>
+        <v>73589</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>82338</v>
+        <v>79898</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84663</v>
+        <v>85220</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78030</v>
+        <v>77903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>169508</v>
+        <v>169373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>168768</v>
+        <v>171315</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>109535</v>
+        <v>110589</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>119840</v>
+        <v>117816</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>123054</v>
+        <v>121374</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>107313</v>
+        <v>108313</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>222508</v>
+        <v>220446</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>217455</v>
+        <v>215913</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89731</v>
+        <v>88890</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>94811</v>
+        <v>93708</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>87583</v>
+        <v>87789</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>142838</v>
+        <v>142474</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>187705</v>
+        <v>185650</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>246006</v>
+        <v>250055</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>128242</v>
+        <v>126952</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>133829</v>
+        <v>134130</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126288</v>
+        <v>125921</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>177846</v>
+        <v>176643</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>242292</v>
+        <v>241989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>298861</v>
+        <v>302531</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>60502</v>
+        <v>57602</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>106239</v>
+        <v>105388</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>110236</v>
+        <v>108370</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>139061</v>
+        <v>141257</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>175777</v>
+        <v>176183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>253888</v>
+        <v>253842</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>93188</v>
+        <v>91517</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>142320</v>
+        <v>141497</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>151267</v>
+        <v>148500</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>172253</v>
+        <v>172854</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>232091</v>
+        <v>231793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>304514</v>
+        <v>304302</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>43104</v>
+        <v>42737</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>62694</v>
+        <v>61595</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>77087</v>
+        <v>76583</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>82146</v>
+        <v>82221</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>128189</v>
+        <v>127762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>151723</v>
+        <v>150590</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>69160</v>
+        <v>70414</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>89252</v>
+        <v>88310</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>110191</v>
+        <v>112268</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>106501</v>
+        <v>106896</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>172299</v>
+        <v>172200</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>187304</v>
+        <v>187095</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36744</v>
+        <v>37276</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>37882</v>
+        <v>39168</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>77920</v>
+        <v>77923</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>83396</v>
+        <v>81958</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>121839</v>
+        <v>122144</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>127959</v>
+        <v>127073</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>60069</v>
+        <v>59188</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>58777</v>
+        <v>58840</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>115374</v>
+        <v>115662</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>110246</v>
+        <v>108025</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>164161</v>
+        <v>166222</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>161270</v>
+        <v>160327</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
     </row>
     <row r="36">
